--- a/Backend/media/school_one/staff/Sone478/INTEGRATED-SCIENCE-2021-SCIENCE-Exams.xlsx
+++ b/Backend/media/school_one/staff/Sone478/INTEGRATED-SCIENCE-2021-SCIENCE-Exams.xlsx
@@ -453,7 +453,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>SUBJECT: [INTEGRATED SCIENCE]  ACADEMIC YEAR: [2023/2024]  CLASS: [2021-SCIENCE]  SEMESTER: [1]</t>
+          <t>SUBJECT: [INTEGRATED SCIENCE]  ACADEMIC YEAR: [2023/2024]  CLASS: [2021-SCIENCE]  SEMESTER 1 EXAMS</t>
         </is>
       </c>
     </row>
@@ -498,12 +498,12 @@
       <c r="A6" s="2" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>SCIENCE STUDENT FOUR</t>
+          <t>SCIENCE STUDENT ONE</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>202150304</t>
+          <t>202150301</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
@@ -514,12 +514,12 @@
       <c r="A7" s="2" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>SCIENCE STUDENT SIX</t>
+          <t>SCIENCE STUDENT TEN</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>202150306</t>
+          <t>202150310</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr"/>
@@ -530,12 +530,12 @@
       <c r="A8" s="2" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>SCIENCE STUDENT SEVEN</t>
+          <t>SCIENCE STUDENT TWELVE</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>202150307</t>
+          <t>202150312</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
@@ -546,12 +546,12 @@
       <c r="A9" s="2" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>SCIENCE STUDENT SIXTEEN</t>
+          <t>SCIENCE STUDENT THIRTEEN</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>202150316</t>
+          <t>202150313</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
@@ -560,17 +560,33 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="5" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>SCIENCE STUDENT SEVENTEEN</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>202150317</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr"/>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="5" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>SCIENCE STUDENT EIGHTEEN</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>202150318</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
     </row>
